--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium\Selenium\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16140" windowHeight="5865" xr2:uid="{FC912AE6-F18C-464C-8C12-81BAF6A177E9}"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Ravi</t>
   </si>
@@ -53,6 +57,15 @@
   </si>
   <si>
     <t>Nasan</t>
+  </si>
+  <si>
+    <t>Yes Or No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -415,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F4F720-3FCE-44E1-A80F-D46C4627BCD5}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,7 +439,7 @@
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -436,8 +449,11 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -447,8 +463,11 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -458,8 +477,11 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -468,6 +490,9 @@
       </c>
       <c r="C4" t="s">
         <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
